--- a/data/stopword_list.xlsx
+++ b/data/stopword_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbpark/GBnotebook/mHealthapp-review-analysis1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EEC3A3-CD52-C548-B759-8220216F9B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FE5F95-E508-D54D-A1F4-40DE372A997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{FC117C88-87F2-F64E-BEB1-49D6CB2E0636}"/>
+    <workbookView xWindow="16860" yWindow="460" windowWidth="18980" windowHeight="21140" xr2:uid="{FC117C88-87F2-F64E-BEB1-49D6CB2E0636}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="959">
   <si>
     <t>stopword</t>
   </si>
@@ -2938,6 +2938,82 @@
   </si>
   <si>
     <t>예를 들자면</t>
+  </si>
+  <si>
+    <t>이것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>때문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건가요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만큼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3350,10 +3426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBEFEF7-63E3-5643-97E0-D4F67F55F94C}">
-  <dimension ref="A1:A953"/>
+  <dimension ref="A1:A973"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A945" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A974" sqref="A974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8126,6 +8202,106 @@
         <v>24</v>
       </c>
     </row>
+    <row r="954" spans="1:1">
+      <c r="A954" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A1298">
     <sortCondition ref="A1260:A1298"/>

--- a/data/stopword_list.xlsx
+++ b/data/stopword_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbpark/GBnotebook/mHealthapp-review-analysis1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FE5F95-E508-D54D-A1F4-40DE372A997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A5C644-6BB1-1343-9DDE-AE3B15EC9DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="460" windowWidth="18980" windowHeight="21140" xr2:uid="{FC117C88-87F2-F64E-BEB1-49D6CB2E0636}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="18980" windowHeight="21140" xr2:uid="{FC117C88-87F2-F64E-BEB1-49D6CB2E0636}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="994">
   <si>
     <t>stopword</t>
   </si>
@@ -3013,6 +3013,146 @@
   </si>
   <si>
     <t>테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가위바위보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박인정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3426,10 +3566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBEFEF7-63E3-5643-97E0-D4F67F55F94C}">
-  <dimension ref="A1:A973"/>
+  <dimension ref="A1:A1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A945" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A974" sqref="A974"/>
+    <sheetView tabSelected="1" topLeftCell="A1002" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A1031" sqref="A1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8302,6 +8442,291 @@
         <v>958</v>
       </c>
     </row>
+    <row r="974" spans="1:1">
+      <c r="A974" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1">
+      <c r="A1002" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1">
+      <c r="A1005" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1">
+      <c r="A1007" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1">
+      <c r="A1010" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1">
+      <c r="A1012" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1">
+      <c r="A1015" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1">
+      <c r="A1017" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1">
+      <c r="A1022" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1">
+      <c r="A1023" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1">
+      <c r="A1025" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1">
+      <c r="A1027" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1">
+      <c r="A1028" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1">
+      <c r="A1029" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1">
+      <c r="A1030" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A1298">
     <sortCondition ref="A1260:A1298"/>
